--- a/NEW HR/NUÑEZ, RUBEN JACOB.xlsx
+++ b/NEW HR/NUÑEZ, RUBEN JACOB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5DC0A6-B4DC-4A62-9440-E6004C863779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,12 +177,18 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -805,7 +810,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -851,25 +855,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K65" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1176,32 +1180,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1226,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1268,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1272,7 +1276,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1285,7 +1289,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="48" t="s">
@@ -1302,7 +1306,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1346,7 +1350,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.167</v>
+        <v>9.9169999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1356,12 +1360,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.167</v>
+        <v>9.9169999999999998</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1383,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44806</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44867</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>47</v>
       </c>
@@ -1449,7 +1453,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45019</v>
       </c>
@@ -1469,120 +1473,158 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>45077</v>
+      </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>45107</v>
+      </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>45138</v>
+      </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>45169</v>
+      </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>45199</v>
+      </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>45230</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
+      <c r="K20" s="41">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>45260</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="K21" s="41">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>45291</v>
+      </c>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1597,55 +1639,61 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>45322</v>
+      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>45351</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -1661,7 +1709,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
@@ -1677,7 +1725,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
@@ -1693,7 +1741,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -1709,7 +1757,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -1725,7 +1773,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -1741,7 +1789,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
@@ -1757,7 +1805,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
@@ -1773,7 +1821,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -1789,7 +1837,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -1805,7 +1853,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -1821,7 +1869,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
@@ -1837,7 +1885,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -1853,7 +1901,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -1869,7 +1917,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -1885,7 +1933,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -1901,7 +1949,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -1917,7 +1965,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -1933,7 +1981,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -1949,7 +1997,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -1965,7 +2013,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -1981,7 +2029,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -1997,23 +2045,23 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -2024,12 +2072,12 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="13"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -2045,7 +2093,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -2061,7 +2109,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -2077,7 +2125,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -2093,7 +2141,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -2109,7 +2157,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -2125,7 +2173,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2141,7 +2189,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2157,7 +2205,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -2173,7 +2221,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -2184,28 +2232,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="13"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -2221,7 +2269,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -2237,7 +2285,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -2253,21 +2301,37 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" s="13"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="16"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2284,10 +2348,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2308,28 +2372,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
@@ -2342,7 +2406,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="D3" s="12"/>
@@ -2391,17 +2455,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2486,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -2449,7 +2513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -2475,7 +2539,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -2501,7 +2565,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -2527,7 +2591,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -2553,7 +2617,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -2579,7 +2643,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -2605,7 +2669,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -2631,7 +2695,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -2651,7 +2715,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -2671,7 +2735,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -2691,7 +2755,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -2712,7 +2776,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -2733,7 +2797,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -2754,7 +2818,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -2775,7 +2839,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -2796,7 +2860,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -2817,7 +2881,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -2838,7 +2902,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -2859,7 +2923,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -2880,7 +2944,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -2901,7 +2965,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -2922,7 +2986,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -2943,7 +3007,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -2964,7 +3028,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -2985,7 +3049,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -3006,7 +3070,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -3027,7 +3091,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -3048,7 +3112,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -3069,7 +3133,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -3090,7 +3154,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -3111,7 +3175,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -3120,7 +3184,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -3129,7 +3193,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -3138,7 +3202,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -3147,7 +3211,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -3156,7 +3220,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -3165,7 +3229,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -3174,7 +3238,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -3183,7 +3247,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -3192,7 +3256,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -3201,7 +3265,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -3210,7 +3274,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -3219,7 +3283,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -3228,7 +3292,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -3237,7 +3301,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -3246,7 +3310,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -3255,7 +3319,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -3264,7 +3328,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -3273,7 +3337,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -3282,7 +3346,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -3291,7 +3355,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -3300,7 +3364,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -3309,7 +3373,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -3318,7 +3382,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -3327,7 +3391,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -3336,7 +3400,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -3345,7 +3409,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -3354,7 +3418,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -3363,7 +3427,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -3372,7 +3436,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
